--- a/Amoozyar-UIUX-Ticketing.xlsx
+++ b/Amoozyar-UIUX-Ticketing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahram\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahram\Documents\GitHub\UI-UX-Amoozeshyar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19DC7F70-BBC9-4A8E-9742-7114075FAFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3D404C-2539-463C-81C8-F337E6F6DD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="336" yWindow="528" windowWidth="19380" windowHeight="11496" activeTab="3" xr2:uid="{89C8CCC3-6872-4478-824F-6959FFB2D977}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>استفاده از لوگوی متفرقه</t>
   </si>
   <si>
-    <t>لوگوی دانشگاه</t>
-  </si>
-  <si>
     <t>عنوان سامانه</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>از لوگوی موجود در گیت استفاده فرمایید.</t>
+  </si>
+  <si>
+    <t>لوگوی دانشگاه آزاد</t>
   </si>
 </sst>
 </file>
@@ -2952,13 +2952,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -2980,13 +2980,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
@@ -3015,7 +3015,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3080,13 +3080,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -3102,19 +3102,19 @@
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -3130,19 +3130,19 @@
         <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>

--- a/Amoozyar-UIUX-Ticketing.xlsx
+++ b/Amoozyar-UIUX-Ticketing.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahram\Documents\GitHub\UI-UX-Amoozeshyar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3D404C-2539-463C-81C8-F337E6F6DD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905C01D5-332F-4834-BA83-C076C9645480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="336" yWindow="528" windowWidth="19380" windowHeight="11496" activeTab="3" xr2:uid="{89C8CCC3-6872-4478-824F-6959FFB2D977}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{89C8CCC3-6872-4478-824F-6959FFB2D977}"/>
   </bookViews>
   <sheets>
     <sheet name="اصلاحات املائی" sheetId="5" r:id="rId1"/>
     <sheet name="اصلاحات رنگ" sheetId="2" r:id="rId2"/>
     <sheet name="اصلاحات فونت" sheetId="3" r:id="rId3"/>
     <sheet name="اصلاحات دیگر" sheetId="4" r:id="rId4"/>
+    <sheet name="UX" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
   <si>
     <t>ردیف</t>
   </si>
@@ -146,13 +147,112 @@
   </si>
   <si>
     <t>لوگوی دانشگاه آزاد</t>
+  </si>
+  <si>
+    <t>صفحه اصلی</t>
+  </si>
+  <si>
+    <t>منوی جانبی</t>
+  </si>
+  <si>
+    <t>تغییر متن و ترتیب اجزای منو</t>
+  </si>
+  <si>
+    <t>راهبری کلاس درس / مدیریت حضور و غیاب / ثبت نمرات نهایی / بررسی اعتراضات دانشجویان / سمت‌های اجرایی / سمت‌های استادی / سمت‌های راهنما / اطلاعات فردی و تنظیمات کاربر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منوی اصلی باید در بدو ورود باز شده باشد </t>
+  </si>
+  <si>
+    <t>اصولا نمایش عنوان منوی عملیات استاد ... بی‌مورد است.</t>
+  </si>
+  <si>
+    <t>دکمه تغییر رمز عبور</t>
+  </si>
+  <si>
+    <t>جای اشتباه</t>
+  </si>
+  <si>
+    <t>از این صفحه حذف شده وبه بخش اطلاعات فردی و تنظیمات کاربر منتقل گردد.</t>
+  </si>
+  <si>
+    <t>دکمه درباره</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اجرای ناخوانا / بیشتر </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>تماس با ما</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>در صورت امکان حذف گردد / اطلاعات تماس به پانوشت تبدیل شوند (در تمام سامانه)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">حذف منوی </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>میزان غیبت دانشجو</t>
+    </r>
+  </si>
+  <si>
+    <t>کلا حذف یا حذف دسترسی</t>
+  </si>
+  <si>
+    <t>آیکون علامت سوال در بالای صفحه</t>
+  </si>
+  <si>
+    <t>بی‌استفاده</t>
+  </si>
+  <si>
+    <t>حذف شود</t>
+  </si>
+  <si>
+    <t>خروجی اکسل</t>
+  </si>
+  <si>
+    <t>کدینگ نامانوس</t>
+  </si>
+  <si>
+    <t>اصلاح یا حذف کامل</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +270,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -377,7 +486,429 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2267,76 +2798,94 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82035D14-4DFD-4C61-8932-B098AAFD4E18}" name="Table2" displayName="Table2" ref="A1:J4" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52" totalsRowBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82035D14-4DFD-4C61-8932-B098AAFD4E18}" name="Table2" displayName="Table2" ref="A1:J4" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" tableBorderDxfId="65" totalsRowBorderDxfId="64">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{05A4231F-B4D2-4DDA-A498-E1529700E6B6}" name="ردیف" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{05A4231F-B4D2-4DDA-A498-E1529700E6B6}" name="ردیف" dataDxfId="63">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9CAC575B-779B-4C4E-A3B2-30E342D93F50}" name="تاریخ اعلام" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{5DE70674-8D84-4864-9B5B-E116667423A4}" name="اعلام‌کننده" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{7A95280F-1EB0-480E-89D3-C5BF23AF5D8B}" name="سامانه" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{28AB0684-0782-4E86-A98A-EEE70C291520}" name="ردیف منو" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{41E311DA-C7C6-4F65-A02D-1EFC345FF83A}" name="محل حدودی اشکال" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{5959AE59-9657-41CD-9975-9144788915BD}" name="اشکال موجود" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{EF2A7E25-4366-473F-8E2B-1AF587DF8EE4}" name="شکل اصلاح شده" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{01941971-BA63-4D35-ADA1-CBE9592E07D2}" name="تاریخ اصلاح" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{E754645B-E823-48A5-BC7C-1E01EBBEF7C7}" name="اصلاح‌کننده" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{9CAC575B-779B-4C4E-A3B2-30E342D93F50}" name="تاریخ اعلام" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{5DE70674-8D84-4864-9B5B-E116667423A4}" name="اعلام‌کننده" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{7A95280F-1EB0-480E-89D3-C5BF23AF5D8B}" name="سامانه" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{28AB0684-0782-4E86-A98A-EEE70C291520}" name="ردیف منو" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{41E311DA-C7C6-4F65-A02D-1EFC345FF83A}" name="محل حدودی اشکال" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{5959AE59-9657-41CD-9975-9144788915BD}" name="اشکال موجود" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{EF2A7E25-4366-473F-8E2B-1AF587DF8EE4}" name="شکل اصلاح شده" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{01941971-BA63-4D35-ADA1-CBE9592E07D2}" name="تاریخ اصلاح" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{E754645B-E823-48A5-BC7C-1E01EBBEF7C7}" name="اصلاح‌کننده" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BDC69FFC-43B7-4409-AAB0-35AEFD946C8B}" name="Table24" displayName="Table24" ref="A1:J2" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BDC69FFC-43B7-4409-AAB0-35AEFD946C8B}" name="Table24" displayName="Table24" ref="A1:J2" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{FC3EC6C5-59EE-45AF-B27B-5B189967EB67}" name="ردیف" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{FC3EC6C5-59EE-45AF-B27B-5B189967EB67}" name="ردیف" dataDxfId="49">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A94C5FF5-AAD4-4AB4-824F-2951C14AD9FE}" name="تاریخ اعلام" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{B66B764A-806E-4E05-B140-9EC9A8A21C7B}" name="اعلام‌کننده" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{7E027E37-7564-4583-8F3F-0EE36B741961}" name="سامانه" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{334A3FA4-CE37-4044-A6F0-5D804A0ACF7C}" name="ردیف منو" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{6B0CBCA3-E3F9-4A8F-A5F6-5A49F9308E67}" name="محل حدودی اشکال" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{7B42A13F-E5FD-4050-92E2-449519605808}" name="اشکال موجود" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{9AE5D9DB-D0C3-4130-8FE1-6C437208E372}" name="شکل اصلاح شده" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{53BD55B3-E0B3-449B-8AE3-409794D8AD46}" name="تاریخ اصلاح" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{FA136621-E953-43E6-9AE0-7738F8A174E3}" name="اصلاح‌کننده" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{A94C5FF5-AAD4-4AB4-824F-2951C14AD9FE}" name="تاریخ اعلام" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{B66B764A-806E-4E05-B140-9EC9A8A21C7B}" name="اعلام‌کننده" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{7E027E37-7564-4583-8F3F-0EE36B741961}" name="سامانه" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{334A3FA4-CE37-4044-A6F0-5D804A0ACF7C}" name="ردیف منو" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{6B0CBCA3-E3F9-4A8F-A5F6-5A49F9308E67}" name="محل حدودی اشکال" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{7B42A13F-E5FD-4050-92E2-449519605808}" name="اشکال موجود" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{9AE5D9DB-D0C3-4130-8FE1-6C437208E372}" name="شکل اصلاح شده" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{53BD55B3-E0B3-449B-8AE3-409794D8AD46}" name="تاریخ اصلاح" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{FA136621-E953-43E6-9AE0-7738F8A174E3}" name="اصلاح‌کننده" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E2B9B9E1-D4FA-4EA8-BBBF-466DA8C932FB}" name="Table245" displayName="Table245" ref="A1:J3" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E2B9B9E1-D4FA-4EA8-BBBF-466DA8C932FB}" name="Table245" displayName="Table245" ref="A1:J3" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{839D50EE-11F0-44D2-8A67-F136F3E8E859}" name="ردیف" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{486AD1E8-9014-48FB-B206-0D23EE0A7B22}" name="تاریخ اعلام" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{42C16992-069E-42C1-ADF5-C9BFD819258C}" name="اعلام‌کننده" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{4A412D35-68EA-4193-8D16-50C114DBC036}" name="سامانه" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{FA87F7C0-0A4F-41A6-B182-500DD4D81FC5}" name="ردیف منو" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{7EB3A952-1B15-474B-9C2A-B34191F547A3}" name="محل حدودی اشکال" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{1FFE8EC5-F5FA-43FD-ADF4-554E48C5CC91}" name="اشکال موجود" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{314CA627-6C4F-434E-9825-2F5F4597FB54}" name="شکل اصلاح شده" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{18EA3BB1-99E6-434F-92E5-C7CF3CD251C9}" name="تاریخ اصلاح" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{706C5F38-0F15-4044-9514-84B8340D5FF6}" name="اصلاح‌کننده" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{839D50EE-11F0-44D2-8A67-F136F3E8E859}" name="ردیف" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{486AD1E8-9014-48FB-B206-0D23EE0A7B22}" name="تاریخ اعلام" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{42C16992-069E-42C1-ADF5-C9BFD819258C}" name="اعلام‌کننده" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{4A412D35-68EA-4193-8D16-50C114DBC036}" name="سامانه" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{FA87F7C0-0A4F-41A6-B182-500DD4D81FC5}" name="ردیف منو" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{7EB3A952-1B15-474B-9C2A-B34191F547A3}" name="محل حدودی اشکال" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{1FFE8EC5-F5FA-43FD-ADF4-554E48C5CC91}" name="اشکال موجود" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{314CA627-6C4F-434E-9825-2F5F4597FB54}" name="شکل اصلاح شده" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{18EA3BB1-99E6-434F-92E5-C7CF3CD251C9}" name="تاریخ اصلاح" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{706C5F38-0F15-4044-9514-84B8340D5FF6}" name="اصلاح‌کننده" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6DEB1CC-31E1-4A71-B9E6-61213389BE54}" name="Table246" displayName="Table246" ref="A1:J4" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D6DEB1CC-31E1-4A71-B9E6-61213389BE54}" name="Table246" displayName="Table246" ref="A1:J4" totalsRowShown="0" headerRowDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8A978F95-F010-435C-9D07-92383A9F9FC8}" name="ردیف" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{D54C8177-3313-4C2E-8268-BB3A674ED3C1}" name="تاریخ اعلام" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{7146E76C-76B8-41EE-8B59-434AF453FB01}" name="اعلام‌کننده" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{E12731B0-D037-423F-863B-182C9D106664}" name="سامانه" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{CEF2C96F-D1F0-4D82-8123-715B4220831E}" name="ردیف منو" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{FC20FFDD-36FD-4916-BDC6-F3C79CB36B06}" name="محل حدودی اشکال" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{C2E1EB27-0B2D-48EB-A056-CBC65C66E86C}" name="اشکال موجود" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{AD23A3C8-22CF-41A4-A312-4A2B90FA495F}" name="شکل اصلاح شده" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{B4C71ED4-7DB1-4255-ADAC-3179D2FAE453}" name="تاریخ اصلاح" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{2AC50AC7-9B35-4FFE-9F48-B227A991B16F}" name="اصلاح‌کننده" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8A978F95-F010-435C-9D07-92383A9F9FC8}" name="ردیف" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{D54C8177-3313-4C2E-8268-BB3A674ED3C1}" name="تاریخ اعلام" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{7146E76C-76B8-41EE-8B59-434AF453FB01}" name="اعلام‌کننده" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{E12731B0-D037-423F-863B-182C9D106664}" name="سامانه" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{CEF2C96F-D1F0-4D82-8123-715B4220831E}" name="ردیف منو" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{FC20FFDD-36FD-4916-BDC6-F3C79CB36B06}" name="محل حدودی اشکال" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{C2E1EB27-0B2D-48EB-A056-CBC65C66E86C}" name="اشکال موجود" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{AD23A3C8-22CF-41A4-A312-4A2B90FA495F}" name="شکل اصلاح شده" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{B4C71ED4-7DB1-4255-ADAC-3179D2FAE453}" name="تاریخ اصلاح" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{2AC50AC7-9B35-4FFE-9F48-B227A991B16F}" name="اصلاح‌کننده" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0ABEAE6A-E6A1-4A24-A371-F199757B76F4}" name="Table2462" displayName="Table2462" ref="A1:J8" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{8C29F7C1-2C91-41C1-B8BB-22DE897B2980}" name="ردیف" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{BB40E827-5231-444A-BFE3-CC867420A13C}" name="تاریخ اعلام" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{CF0DAFBB-9E25-4E9B-AFED-662B4D14D765}" name="اعلام‌کننده" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{951A961D-EAF8-4C84-AFC7-76365AF634C9}" name="سامانه" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{03D7AAA0-85E4-4298-AEF7-E8E2C606E36D}" name="ردیف منو" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{42C43D4C-4D30-4C59-8CA2-F18371619DF2}" name="محل حدودی اشکال" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{DBF4AE63-106C-4ABD-BA9E-F6CEDA9F0FA0}" name="اشکال موجود" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{6E7E8133-B9CD-4353-817A-38D40B213F17}" name="شکل اصلاح شده" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{7B793136-497D-486D-9280-D022DF11848A}" name="تاریخ اصلاح" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{C1B8891D-2F9B-45E1-86E3-AB6E8DF861DB}" name="اصلاح‌کننده" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3014,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8701F85-CBA0-4931-9B21-94708E7D6B05}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3164,4 +3713,273 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF4D773-FC60-49E9-8E11-4732ACE13B87}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="40.77734375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8" xr:uid="{28AFC2D3-63B1-4591-BB75-A7F3A199FC4C}">
+      <formula1>"اساتید,دانشجویان,هردو"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8" xr:uid="{95B28A60-5E09-48AF-8795-D25E56A3A665}">
+      <formula1>"کاظمی,علیایی,فتحی,میرخانی"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8 C2:C8" xr:uid="{08BBC02C-366F-499C-BB37-0DA58D5F22F4}">
+      <formula1>"میرخانی,علیایی,فتحی,کاظمی"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Amoozyar-UIUX-Ticketing.xlsx
+++ b/Amoozyar-UIUX-Ticketing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahram\Documents\GitHub\UI-UX-Amoozeshyar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905C01D5-332F-4834-BA83-C076C9645480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC32A81-73DA-4553-887B-3DC9A482DA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{89C8CCC3-6872-4478-824F-6959FFB2D977}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="60">
   <si>
     <t>ردیف</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">منوی اصلی باید در بدو ورود باز شده باشد </t>
-  </si>
-  <si>
-    <t>اصولا نمایش عنوان منوی عملیات استاد ... بی‌مورد است.</t>
   </si>
   <si>
     <t>دکمه تغییر رمز عبور</t>
@@ -246,6 +243,43 @@
   </si>
   <si>
     <t>اصلاح یا حذف کامل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زمان ورود </t>
+  </si>
+  <si>
+    <t>با هماهنگی قبلی حذف شود</t>
+  </si>
+  <si>
+    <t>چاپ صفحه جاری</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اصولا نمایش عنوان منوی </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>عملیات استاد/پرسنل</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> بی‌مورد است.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2874,7 +2908,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0ABEAE6A-E6A1-4A24-A371-F199757B76F4}" name="Table2462" displayName="Table2462" ref="A1:J8" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0ABEAE6A-E6A1-4A24-A371-F199757B76F4}" name="Table2462" displayName="Table2462" ref="A1:J10" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{8C29F7C1-2C91-41C1-B8BB-22DE897B2980}" name="ردیف" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BB40E827-5231-444A-BFE3-CC867420A13C}" name="تاریخ اعلام" dataDxfId="8"/>
@@ -3717,10 +3751,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF4D773-FC60-49E9-8E11-4732ACE13B87}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3816,10 +3850,10 @@
         <v>38</v>
       </c>
       <c r="G3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -3847,7 +3881,7 @@
         <v>41</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3869,13 +3903,13 @@
         <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -3897,13 +3931,13 @@
         <v>37</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -3925,13 +3959,13 @@
         <v>37</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -3953,26 +3987,82 @@
         <v>37</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="H8" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
+    <row r="9" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8" xr:uid="{28AFC2D3-63B1-4591-BB75-A7F3A199FC4C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{28AFC2D3-63B1-4591-BB75-A7F3A199FC4C}">
       <formula1>"اساتید,دانشجویان,هردو"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8" xr:uid="{95B28A60-5E09-48AF-8795-D25E56A3A665}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J10" xr:uid="{95B28A60-5E09-48AF-8795-D25E56A3A665}">
       <formula1>"کاظمی,علیایی,فتحی,میرخانی"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8 C2:C8" xr:uid="{08BBC02C-366F-499C-BB37-0DA58D5F22F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I10 C2:C10" xr:uid="{08BBC02C-366F-499C-BB37-0DA58D5F22F4}">
       <formula1>"میرخانی,علیایی,فتحی,کاظمی"</formula1>
     </dataValidation>
   </dataValidations>
